--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,220 +40,244 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>like</t>
+    <t>yes</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>share</t>
+    <t>protect</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>give</t>
   </si>
   <si>
     <t>increase</t>
@@ -262,19 +286,25 @@
     <t>data</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -632,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -751,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -801,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.88</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>0.9230769230769231</v>
@@ -951,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.88</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>0.9166666666666666</v>
@@ -1001,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8527397260273972</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.9112271540469974</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,16 +1102,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8275862068965517</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,16 +1152,16 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.9069767441860465</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7948717948717948</v>
+        <v>0.725</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7419354838709677</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7333333333333333</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.8802816901408451</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7307692307692307</v>
+        <v>0.6724806201550387</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8625</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.725</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L16">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7073643410852714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.8723404255319149</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6862745098039216</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.8620689655172413</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.671957671957672</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C19">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.8536585365853658</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65625</v>
+        <v>0.625</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.8333333333333334</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6410256410256411</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.8253968253968254</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6174496644295302</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C22">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6101694915254238</v>
+        <v>0.5861111111111111</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.8205128205128205</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5861111111111111</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C24">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,38 +1831,38 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5675675675675675</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>26</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L25">
         <v>21</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>21</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L25">
-        <v>38</v>
-      </c>
-      <c r="M25">
-        <v>38</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1843,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5636363636363636</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4933333333333333</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1981,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4821428571428572</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K28">
         <v>0.75</v>
@@ -2001,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4545454545454545</v>
+        <v>0.375</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29">
+        <v>0.75</v>
+      </c>
+      <c r="L29">
         <v>30</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29">
-        <v>0.7470588235294118</v>
-      </c>
-      <c r="L29">
-        <v>254</v>
-      </c>
       <c r="M29">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3111111111111111</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.7196652719665272</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L30">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2131,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2896825396825397</v>
+        <v>0.3253968253968254</v>
       </c>
       <c r="C31">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D31">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.7142857142857143</v>
+        <v>0.74</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2597402597402597</v>
+        <v>0.1876675603217158</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2169,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.6923076923076923</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1769436997319035</v>
+        <v>0.08</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.6813559322033899</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L33">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2243,125 +2273,221 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.01127940702545923</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34">
+        <v>0.9</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>3068</v>
+      </c>
       <c r="J34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.009692372524230931</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>0.21</v>
+      </c>
+      <c r="F35">
+        <v>0.79</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2350</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35">
+        <v>0.702928870292887</v>
+      </c>
+      <c r="L35">
+        <v>168</v>
+      </c>
+      <c r="M35">
+        <v>168</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>71</v>
       </c>
-      <c r="K34">
-        <v>0.68</v>
-      </c>
-      <c r="L34">
-        <v>34</v>
-      </c>
-      <c r="M34">
-        <v>34</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.003887269193391642</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>5125</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>0.6966292134831461</v>
+      </c>
+      <c r="L36">
+        <v>62</v>
+      </c>
+      <c r="M36">
+        <v>62</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.003824476650563607</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>0.6</v>
+      </c>
+      <c r="F37">
+        <v>0.4</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>4949</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L35">
-        <v>34</v>
-      </c>
-      <c r="M35">
-        <v>34</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L36">
-        <v>22</v>
-      </c>
-      <c r="M36">
-        <v>22</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.651685393258427</v>
-      </c>
-      <c r="L37">
-        <v>58</v>
-      </c>
-      <c r="M37">
-        <v>58</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.648936170212766</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L38">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M38">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2373,21 +2499,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2399,21 +2525,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K40">
-        <v>0.5857142857142857</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2425,21 +2551,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2451,21 +2577,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>0.5342465753424658</v>
+        <v>0.59375</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2477,21 +2603,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>0.4871794871794872</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2503,21 +2629,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K44">
-        <v>0.456140350877193</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2529,21 +2655,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K45">
-        <v>0.453125</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2555,21 +2681,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K46">
-        <v>0.3770491803278688</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2581,21 +2707,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K47">
-        <v>0.3728813559322034</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2607,59 +2733,267 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K48">
-        <v>0.1759259259259259</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K49">
-        <v>0.01668056713928273</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L49">
         <v>20</v>
       </c>
       <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50">
+        <v>0.1962616822429906</v>
+      </c>
+      <c r="L50">
         <v>21</v>
       </c>
-      <c r="N49">
-        <v>0.95</v>
-      </c>
-      <c r="O49">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1179</v>
+      <c r="M50">
+        <v>23</v>
+      </c>
+      <c r="N50">
+        <v>0.91</v>
+      </c>
+      <c r="O50">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51">
+        <v>0.1774193548387097</v>
+      </c>
+      <c r="L51">
+        <v>22</v>
+      </c>
+      <c r="M51">
+        <v>22</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K52">
+        <v>0.03260869565217391</v>
+      </c>
+      <c r="L52">
+        <v>39</v>
+      </c>
+      <c r="M52">
+        <v>43</v>
+      </c>
+      <c r="N52">
+        <v>0.91</v>
+      </c>
+      <c r="O52">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53">
+        <v>0.01489028213166144</v>
+      </c>
+      <c r="L53">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <v>32</v>
+      </c>
+      <c r="N53">
+        <v>0.59</v>
+      </c>
+      <c r="O53">
+        <v>0.41</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K54">
+        <v>0.009752438109527382</v>
+      </c>
+      <c r="L54">
+        <v>26</v>
+      </c>
+      <c r="M54">
+        <v>33</v>
+      </c>
+      <c r="N54">
+        <v>0.79</v>
+      </c>
+      <c r="O54">
+        <v>0.21</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K55">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="L55">
+        <v>22</v>
+      </c>
+      <c r="M55">
+        <v>33</v>
+      </c>
+      <c r="N55">
+        <v>0.67</v>
+      </c>
+      <c r="O55">
+        <v>0.33</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56">
+        <v>0.005625879043600563</v>
+      </c>
+      <c r="L56">
+        <v>28</v>
+      </c>
+      <c r="M56">
+        <v>47</v>
+      </c>
+      <c r="N56">
+        <v>0.6</v>
+      </c>
+      <c r="O56">
+        <v>0.4</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57">
+        <v>0.003887269193391642</v>
+      </c>
+      <c r="L57">
+        <v>20</v>
+      </c>
+      <c r="M57">
+        <v>40</v>
+      </c>
+      <c r="N57">
+        <v>0.5</v>
+      </c>
+      <c r="O57">
+        <v>0.5</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>5125</v>
       </c>
     </row>
   </sheetData>
